--- a/medicine/Mort/Face_à_la_mort_V/Face_à_la_mort_V.xlsx
+++ b/medicine/Mort/Face_à_la_mort_V/Face_à_la_mort_V.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_V</t>
+          <t>Face_à_la_mort_V</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Face à la mort V (Faces of Death V) est un film mondo réalisé par John Alan Schwartz, Susumu Saegusa et Andrew Theopolis et sorti en 1995 en direct-to-video.
 Généralement connu[Par qui ?] comme étant une tentative de garder la série Face à la mort en vie[style à revoir][citation nécessaire], ce vidéofilm est caractérisé par son contenu emprunté à ses prédécesseurs : il débute par le générique de début du premier volet et se poursuit par des images des volets 1 à 4. La scène qui figure la tuerie d'un singe ensuite mijoté et préparé pour le repas de personnes âgées est elle reprise du premier[Quoi ?] volet. Les scènes de l'arrachement du cœur par des éléphants d'Afrique ainsi que la scène de la "tête dans la boite" sont omniprésentes et toutes deux reprises de Face à la mort IV. Adolf Hitler refait[précision nécessaire] également son apparition dans le film.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_V</t>
+          <t>Face_à_la_mort_V</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : Faces of Death V
 Titre français : Face à la mort 5
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_V</t>
+          <t>Face_à_la_mort_V</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Série Face à la mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Suivi de :
 1996 : Face à la mort VI
